--- a/cd/doc/formaty_plikow_xls_do_importu_danych/wykladowcy.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/wykladowcy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Nazwisko</t>
   </si>
@@ -145,13 +145,31 @@
   </si>
   <si>
     <t xml:space="preserve">Chojnacki </t>
+  </si>
+  <si>
+    <t>Przedmioty</t>
+  </si>
+  <si>
+    <t>Słowa kluczowe</t>
+  </si>
+  <si>
+    <t>#Matematyka #Fizyka</t>
+  </si>
+  <si>
+    <t>#Xyz #Abc</t>
+  </si>
+  <si>
+    <t>Pamiętaj, by raz użytego skrótu nie zmieniać, ponieważ spowoduje to zdublowanie danych.</t>
+  </si>
+  <si>
+    <t>Program wstawia lub aktualizuje rekordy, w zależności od tego, czy rekord o podanym skrócie istnieje.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -168,8 +186,16 @@
       <name val="Arial CE"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +208,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -192,16 +229,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Dobre" xfId="2" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 3" xfId="1"/>
   </cellStyles>
@@ -502,22 +544,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H3" sqref="H3:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -529,8 +573,14 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A18" si="0">MID(D2,1,2)&amp;MID(C2,1,2)</f>
         <v>AjMi</v>
@@ -546,7 +596,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>AnSł</v>
@@ -561,8 +611,20 @@
         <v>10</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BaMa</v>
@@ -576,9 +638,23 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BaPa</v>
@@ -594,7 +670,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BiBo</v>
@@ -610,7 +686,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BiIr</v>
@@ -626,7 +702,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BiPi</v>
@@ -642,7 +718,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BoBe</v>
@@ -657,8 +733,11 @@
         <v>24</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BoJu</v>
@@ -674,7 +753,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BoTa</v>
@@ -690,7 +769,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BoTo</v>
@@ -706,7 +785,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BoUr</v>
@@ -722,7 +801,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BrAn</v>
@@ -738,7 +817,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ByBe</v>
@@ -754,7 +833,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BzWł</v>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/wykladowcy.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/wykladowcy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Nazwisko</t>
   </si>
@@ -163,13 +163,19 @@
   </si>
   <si>
     <t>Program wstawia lub aktualizuje rekordy, w zależności od tego, czy rekord o podanym skrócie istnieje.</t>
+  </si>
+  <si>
+    <t>Integration Id</t>
+  </si>
+  <si>
+    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -194,8 +200,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +231,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -234,13 +252,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dobre" xfId="2" builtinId="26"/>
@@ -544,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:Q4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -558,9 +577,10 @@
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -579,8 +599,11 @@
       <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A18" si="0">MID(D2,1,2)&amp;MID(C2,1,2)</f>
         <v>AjMi</v>
@@ -596,7 +619,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>AnSł</v>
@@ -611,10 +634,9 @@
         <v>10</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -623,8 +645,9 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BaMa</v>
@@ -641,10 +664,9 @@
       <c r="E4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -653,8 +675,9 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BaPa</v>
@@ -670,7 +693,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BiBo</v>
@@ -685,8 +708,20 @@
         <v>18</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BiIr</v>
@@ -702,7 +737,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BiPi</v>
@@ -718,7 +753,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BoBe</v>
@@ -736,8 +771,9 @@
       <c r="F9" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BoJu</v>
@@ -753,7 +789,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BoTa</v>
@@ -769,7 +805,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BoTo</v>
@@ -785,7 +821,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BoUr</v>
@@ -801,7 +837,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BrAn</v>
@@ -817,7 +853,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ByBe</v>
@@ -833,7 +869,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BzWł</v>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/wykladowcy.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/wykladowcy.xlsx
@@ -168,7 +168,7 @@
     <t>Integration Id</t>
   </si>
   <si>
-    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego.</t>
+    <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego. Jeżeli nie wiesz co wpisać, pozostaw to pole puste.</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/cd/doc/formaty_plikow_xls_do_importu_danych/wykladowcy.xlsx
+++ b/cd/doc/formaty_plikow_xls_do_importu_danych/wykladowcy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Nazwisko</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>Integration ID jest polem opcjonalnym. Jest to unikatowy identyfikator rekordu z systemu źródłowego. Jeżeli nie wiesz co wpisać, pozostaw to pole puste.</t>
+  </si>
+  <si>
+    <t>Jednostka organizacyjna</t>
+  </si>
+  <si>
+    <t>W polu Jednostka organizacyjna wpisz nazwę Uczelni lub nazwę Wydziału lub nazwę instytutu. Pole może pozostać puste.</t>
+  </si>
+  <si>
+    <t>Wydział Humanistyczny</t>
   </si>
 </sst>
 </file>
@@ -566,18 +575,19 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -602,6 +612,9 @@
       <c r="G1" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
@@ -618,6 +631,9 @@
         <v>7</v>
       </c>
       <c r="E2" s="2"/>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
@@ -721,7 +737,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>BiIr</v>
@@ -736,6 +752,9 @@
         <v>20</v>
       </c>
       <c r="E7" s="2"/>
+      <c r="I7" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
